--- a/- DOCS -/Excel - COMPONENTS/SUMEC - SEZNAM 3 MKI.xlsx
+++ b/- DOCS -/Excel - COMPONENTS/SUMEC - SEZNAM 3 MKI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\data.sps-prosek.local\popovsa22\Stažené\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simak\OneDrive\Dokumenty\GitHub\RoboCop\- DOCS -\Excel - COMPONENTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44230A7-1AC6-4DC7-89B3-C4DC60028AD2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F13633-5E11-472F-B30D-D3461C3187E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{A60CC677-705C-4E78-B7F3-48967EAC04A1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A60CC677-705C-4E78-B7F3-48967EAC04A1}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
   <si>
     <t>XT30U - M</t>
   </si>
@@ -45,18 +56,6 @@
     <t>https://bit.ly/3mUypEr</t>
   </si>
   <si>
-    <t xml:space="preserve">https://bit.ly/3YQLPia </t>
-  </si>
-  <si>
-    <t>GA12 - N20 12V motor (150 rpm)</t>
-  </si>
-  <si>
-    <t>GA12 - N20 12V motor (300 rpm)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bit.ly/3YQLPia  </t>
-  </si>
-  <si>
     <t xml:space="preserve">https://bit.ly/3Fn61Bc </t>
   </si>
   <si>
@@ -97,6 +96,12 @@
   </si>
   <si>
     <t>Pecka modelář</t>
+  </si>
+  <si>
+    <t>H můstek</t>
+  </si>
+  <si>
+    <t>https://rb.gy/cekk</t>
   </si>
 </sst>
 </file>
@@ -171,7 +176,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -194,12 +199,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -209,7 +223,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -217,72 +231,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hypertextový odkaz" xfId="1" builtinId="8"/>
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color theme="0"/>
@@ -656,42 +611,42 @@
   <dimension ref="E4:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="5" max="5" width="34" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="5:10">
       <c r="G4" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="5:10">
       <c r="E5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="5:10">
@@ -699,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>3</v>
@@ -721,7 +676,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>4</v>
@@ -739,13 +694,13 @@
     </row>
     <row r="8" spans="5:10">
       <c r="E8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H8" s="4">
         <v>10</v>
@@ -770,27 +725,27 @@
     </row>
     <row r="12" spans="5:10">
       <c r="G12" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="5:10">
       <c r="E13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="J13" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="14" spans="5:10">
@@ -798,7 +753,7 @@
         <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>5</v>
@@ -816,86 +771,70 @@
     </row>
     <row r="15" spans="5:10">
       <c r="E15" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="H15" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I15" s="4">
-        <v>108</v>
+        <v>278</v>
       </c>
       <c r="J15" s="4">
-        <f t="shared" si="0"/>
-        <v>432</v>
+        <v>556</v>
       </c>
     </row>
     <row r="16" spans="5:10">
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" s="4">
-        <v>4</v>
-      </c>
-      <c r="I16" s="4">
-        <v>108</v>
-      </c>
-      <c r="J16" s="4">
-        <f t="shared" si="0"/>
-        <v>432</v>
-      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
     </row>
     <row r="18" spans="5:13">
       <c r="J18">
         <f>SUM(J14:J16)</f>
-        <v>1062</v>
+        <v>754</v>
       </c>
     </row>
     <row r="19" spans="5:13">
       <c r="G19" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="5:13">
       <c r="E20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="J20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="4" t="s">
+    </row>
+    <row r="21" spans="5:13" ht="27.6">
+      <c r="E21" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="F21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="5:13" ht="28.5">
-      <c r="E21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="H21" s="4">
         <v>2</v>
@@ -910,15 +849,15 @@
     </row>
     <row r="22" spans="5:13">
       <c r="F22" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="5:13" ht="15.75">
+    <row r="23" spans="5:13" ht="15.6">
       <c r="F23" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
@@ -927,7 +866,7 @@
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
     </row>
-    <row r="24" spans="5:13" ht="15.75">
+    <row r="24" spans="5:13" ht="15.6">
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -936,7 +875,7 @@
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
     </row>
-    <row r="25" spans="5:13" ht="15.75">
+    <row r="25" spans="5:13" ht="15.6">
       <c r="G25" s="6"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -945,7 +884,7 @@
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
     </row>
-    <row r="26" spans="5:13" ht="15.75">
+    <row r="26" spans="5:13" ht="15.6">
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
@@ -954,7 +893,7 @@
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
     </row>
-    <row r="27" spans="5:13" ht="15.75">
+    <row r="27" spans="5:13" ht="15.6">
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
@@ -963,7 +902,7 @@
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
     </row>
-    <row r="28" spans="5:13" ht="15.75">
+    <row r="28" spans="5:13" ht="15.6">
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
@@ -972,7 +911,7 @@
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
     </row>
-    <row r="29" spans="5:13" ht="15.75">
+    <row r="29" spans="5:13" ht="15.6">
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
@@ -981,7 +920,7 @@
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
     </row>
-    <row r="30" spans="5:13" ht="15.75">
+    <row r="30" spans="5:13" ht="15.6">
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
@@ -992,48 +931,36 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F6:F12 F25 F14:F18">
-    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Koupeno">
+    <cfRule type="containsText" dxfId="5" priority="10" operator="containsText" text="Koupeno">
       <formula>NOT(ISERROR(SEARCH("Koupeno",F6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="Na cestě">
+    <cfRule type="containsText" dxfId="4" priority="11" operator="containsText" text="Na cestě">
       <formula>NOT(ISERROR(SEARCH("Na cestě",F6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="K nákupu">
+    <cfRule type="containsText" dxfId="3" priority="12" operator="containsText" text="K nákupu">
       <formula>NOT(ISERROR(SEARCH("K nákupu",F6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21:F23">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Koupeno">
+  <conditionalFormatting sqref="F21:G23">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Koupeno">
       <formula>NOT(ISERROR(SEARCH("Koupeno",F21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Na cestě">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Na cestě">
       <formula>NOT(ISERROR(SEARCH("Na cestě",F21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="K nákupu">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="K nákupu">
       <formula>NOT(ISERROR(SEARCH("K nákupu",F21)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G21:G23">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Koupeno">
-      <formula>NOT(ISERROR(SEARCH("Koupeno",G21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Na cestě">
-      <formula>NOT(ISERROR(SEARCH("Na cestě",G21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="K nákupu">
-      <formula>NOT(ISERROR(SEARCH("K nákupu",G21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="G7" r:id="rId1" xr:uid="{A1987BD5-452F-43CC-87FB-58A2EA1C6A86}"/>
     <hyperlink ref="G6" r:id="rId2" xr:uid="{77575DF0-9FF2-417C-9F83-B3460D81732D}"/>
     <hyperlink ref="G14" r:id="rId3" xr:uid="{5261C3BD-ED7B-4EF8-9FE3-BC172C54A52E}"/>
-    <hyperlink ref="G15" r:id="rId4" xr:uid="{D50442B4-4829-410A-B680-CDECE6413746}"/>
-    <hyperlink ref="G16" r:id="rId5" xr:uid="{137F0B86-F1AE-4957-8C5D-1F854DAF1564}"/>
-    <hyperlink ref="G8" r:id="rId6" xr:uid="{79624631-DF31-4C85-9AAC-ED00B7886533}"/>
-    <hyperlink ref="G21" r:id="rId7" xr:uid="{96E36FFF-CE2F-403E-AE43-DDD59E195CA0}"/>
+    <hyperlink ref="G8" r:id="rId4" xr:uid="{79624631-DF31-4C85-9AAC-ED00B7886533}"/>
+    <hyperlink ref="G21" r:id="rId5" xr:uid="{96E36FFF-CE2F-403E-AE43-DDD59E195CA0}"/>
+    <hyperlink ref="G15" r:id="rId6" xr:uid="{A4ECDB22-71C9-4A32-BD10-B3B075755C29}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/- DOCS -/Excel - COMPONENTS/SUMEC - SEZNAM 3 MKI.xlsx
+++ b/- DOCS -/Excel - COMPONENTS/SUMEC - SEZNAM 3 MKI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simak\OneDrive\Dokumenty\GitHub\RoboCop\- DOCS -\Excel - COMPONENTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F13633-5E11-472F-B30D-D3461C3187E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAEB3343-6573-4D77-B7F2-AFF8EB7C4A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A60CC677-705C-4E78-B7F3-48967EAC04A1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
   <si>
     <t>XT30U - M</t>
   </si>
@@ -102,13 +102,25 @@
   </si>
   <si>
     <t>https://rb.gy/cekk</t>
+  </si>
+  <si>
+    <t>Drátek</t>
+  </si>
+  <si>
+    <t>http://rb.gy/9y54</t>
+  </si>
+  <si>
+    <t>Vývojová deska ESP32</t>
+  </si>
+  <si>
+    <t>nakoupeno</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +179,15 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -213,7 +234,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -232,12 +253,46 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hypertextový odkaz" xfId="1" builtinId="8"/>
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -611,7 +666,7 @@
   <dimension ref="E4:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -688,7 +743,7 @@
         <v>9.8040000000000003</v>
       </c>
       <c r="J7" s="4">
-        <f t="shared" ref="J7:J16" si="0">I7*H7</f>
+        <f t="shared" ref="J7:J8" si="0">I7*H7</f>
         <v>98.04</v>
       </c>
     </row>
@@ -750,54 +805,48 @@
     </row>
     <row r="14" spans="5:10">
       <c r="E14" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F14" t="s">
         <v>8</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="H14" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" s="4">
-        <v>198</v>
+        <v>278</v>
       </c>
       <c r="J14" s="4">
-        <f>I14*H14</f>
-        <v>198</v>
+        <v>556</v>
       </c>
     </row>
     <row r="15" spans="5:10">
       <c r="E15" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F15" t="s">
         <v>8</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="H15" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" s="4">
-        <v>278</v>
+        <v>198</v>
       </c>
       <c r="J15" s="4">
-        <v>556</v>
+        <f>I15*H15</f>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="5:10">
-      <c r="G16" s="1"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-    </row>
-    <row r="18" spans="5:13">
-      <c r="J18">
-        <f>SUM(J14:J16)</f>
+      <c r="J16">
+        <f>SUM(J14:J15)</f>
         <v>754</v>
       </c>
     </row>
@@ -831,7 +880,7 @@
         <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>18</v>
@@ -848,20 +897,14 @@
       </c>
     </row>
     <row r="22" spans="5:13">
-      <c r="F22" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
     </row>
     <row r="23" spans="5:13" ht="15.6">
-      <c r="F23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
@@ -894,7 +937,9 @@
       <c r="M26" s="5"/>
     </row>
     <row r="27" spans="5:13" ht="15.6">
-      <c r="G27" s="5"/>
+      <c r="G27" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
@@ -903,19 +948,47 @@
       <c r="M27" s="5"/>
     </row>
     <row r="28" spans="5:13" ht="15.6">
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
+      <c r="E28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
     </row>
     <row r="29" spans="5:13" ht="15.6">
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
+      <c r="E29" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="5">
+        <v>2</v>
+      </c>
+      <c r="I29" s="5">
+        <v>207</v>
+      </c>
+      <c r="J29" s="5">
+        <v>414</v>
+      </c>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
@@ -930,37 +1003,49 @@
       <c r="M30" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F6:F12 F25 F14:F18">
-    <cfRule type="containsText" dxfId="5" priority="10" operator="containsText" text="Koupeno">
+  <conditionalFormatting sqref="F6:F12 F25 F14:F17">
+    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="Koupeno">
       <formula>NOT(ISERROR(SEARCH("Koupeno",F6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="11" operator="containsText" text="Na cestě">
+    <cfRule type="containsText" dxfId="7" priority="14" operator="containsText" text="Na cestě">
       <formula>NOT(ISERROR(SEARCH("Na cestě",F6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="12" operator="containsText" text="K nákupu">
+    <cfRule type="containsText" dxfId="6" priority="15" operator="containsText" text="K nákupu">
       <formula>NOT(ISERROR(SEARCH("K nákupu",F6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21:G23">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Koupeno">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Koupeno">
       <formula>NOT(ISERROR(SEARCH("Koupeno",F21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Na cestě">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Na cestě">
       <formula>NOT(ISERROR(SEARCH("Na cestě",F21)))</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="K nákupu">
+      <formula>NOT(ISERROR(SEARCH("K nákupu",F21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Koupeno">
+      <formula>NOT(ISERROR(SEARCH("Koupeno",F29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Na cestě">
+      <formula>NOT(ISERROR(SEARCH("Na cestě",F29)))</formula>
+    </cfRule>
     <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="K nákupu">
-      <formula>NOT(ISERROR(SEARCH("K nákupu",F21)))</formula>
+      <formula>NOT(ISERROR(SEARCH("K nákupu",F29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="G7" r:id="rId1" xr:uid="{A1987BD5-452F-43CC-87FB-58A2EA1C6A86}"/>
     <hyperlink ref="G6" r:id="rId2" xr:uid="{77575DF0-9FF2-417C-9F83-B3460D81732D}"/>
-    <hyperlink ref="G14" r:id="rId3" xr:uid="{5261C3BD-ED7B-4EF8-9FE3-BC172C54A52E}"/>
+    <hyperlink ref="G15" r:id="rId3" xr:uid="{5261C3BD-ED7B-4EF8-9FE3-BC172C54A52E}"/>
     <hyperlink ref="G8" r:id="rId4" xr:uid="{79624631-DF31-4C85-9AAC-ED00B7886533}"/>
     <hyperlink ref="G21" r:id="rId5" xr:uid="{96E36FFF-CE2F-403E-AE43-DDD59E195CA0}"/>
-    <hyperlink ref="G15" r:id="rId6" xr:uid="{A4ECDB22-71C9-4A32-BD10-B3B075755C29}"/>
+    <hyperlink ref="G14" r:id="rId6" xr:uid="{A4ECDB22-71C9-4A32-BD10-B3B075755C29}"/>
+    <hyperlink ref="G29" r:id="rId7" xr:uid="{C899E6AB-848E-4A22-9883-BA57A3E5ADC6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/- DOCS -/Excel - COMPONENTS/SUMEC - SEZNAM 3 MKI.xlsx
+++ b/- DOCS -/Excel - COMPONENTS/SUMEC - SEZNAM 3 MKI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simak\OneDrive\Dokumenty\GitHub\RoboCop\- DOCS -\Excel - COMPONENTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MenMe\OneDrive\Изображения\Документы\GitHub\RoboCop\- DOCS -\Excel - COMPONENTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAEB3343-6573-4D77-B7F2-AFF8EB7C4A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1274E9-3784-4B2C-8B01-B79D01FDD021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A60CC677-705C-4E78-B7F3-48967EAC04A1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A60CC677-705C-4E78-B7F3-48967EAC04A1}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -234,7 +234,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -256,7 +256,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hypertextový odkaz" xfId="1" builtinId="8"/>
@@ -665,18 +664,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D745B4-2266-4135-9D72-2FA50B106E4C}">
   <dimension ref="E4:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="5" max="5" width="34" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.90625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="5:10">
@@ -820,7 +819,7 @@
         <v>278</v>
       </c>
       <c r="J14" s="4">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="15" spans="5:10">
@@ -847,7 +846,7 @@
     <row r="16" spans="5:10">
       <c r="J16">
         <f>SUM(J14:J15)</f>
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="19" spans="5:13">
@@ -875,7 +874,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="5:13" ht="27.6">
+    <row r="21" spans="5:13" ht="28">
       <c r="E21" s="7" t="s">
         <v>17</v>
       </c>
@@ -901,15 +900,12 @@
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
     </row>
-    <row r="23" spans="5:13" ht="15.6">
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
+    <row r="23" spans="5:13" ht="15.5">
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
     </row>
-    <row r="24" spans="5:13" ht="15.6">
+    <row r="24" spans="5:13" ht="15.5">
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -918,7 +914,7 @@
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
     </row>
-    <row r="25" spans="5:13" ht="15.6">
+    <row r="25" spans="5:13" ht="15.5">
       <c r="G25" s="6"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -927,7 +923,7 @@
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
     </row>
-    <row r="26" spans="5:13" ht="15.6">
+    <row r="26" spans="5:13" ht="15.5">
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
@@ -936,7 +932,7 @@
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
     </row>
-    <row r="27" spans="5:13" ht="15.6">
+    <row r="27" spans="5:13" ht="15.5">
       <c r="G27" s="10" t="s">
         <v>22</v>
       </c>
@@ -947,7 +943,7 @@
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
     </row>
-    <row r="28" spans="5:13" ht="15.6">
+    <row r="28" spans="5:13" ht="15.5">
       <c r="E28" s="4" t="s">
         <v>11</v>
       </c>
@@ -970,7 +966,7 @@
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
     </row>
-    <row r="29" spans="5:13" ht="15.6">
+    <row r="29" spans="5:13" ht="15.5">
       <c r="E29" t="s">
         <v>24</v>
       </c>
@@ -993,7 +989,7 @@
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
     </row>
-    <row r="30" spans="5:13" ht="15.6">
+    <row r="30" spans="5:13" ht="15.5">
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
@@ -1003,7 +999,7 @@
       <c r="M30" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F6:F12 F25 F14:F17">
+  <conditionalFormatting sqref="F6:F12 F14:F17 F25">
     <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="Koupeno">
       <formula>NOT(ISERROR(SEARCH("Koupeno",F6)))</formula>
     </cfRule>
@@ -1014,26 +1010,26 @@
       <formula>NOT(ISERROR(SEARCH("K nákupu",F6)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Koupeno">
+      <formula>NOT(ISERROR(SEARCH("Koupeno",F29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Na cestě">
+      <formula>NOT(ISERROR(SEARCH("Na cestě",F29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="K nákupu">
+      <formula>NOT(ISERROR(SEARCH("K nákupu",F29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F21:G23">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Koupeno">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Koupeno">
       <formula>NOT(ISERROR(SEARCH("Koupeno",F21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Na cestě">
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="Na cestě">
       <formula>NOT(ISERROR(SEARCH("Na cestě",F21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="K nákupu">
+    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="K nákupu">
       <formula>NOT(ISERROR(SEARCH("K nákupu",F21)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Koupeno">
-      <formula>NOT(ISERROR(SEARCH("Koupeno",F29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Na cestě">
-      <formula>NOT(ISERROR(SEARCH("Na cestě",F29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="K nákupu">
-      <formula>NOT(ISERROR(SEARCH("K nákupu",F29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
